--- a/小红书每人分红金额.xlsx
+++ b/小红书每人分红金额.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,11 +457,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80.01000000000001</v>
+        <v>40</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
@@ -472,206 +472,101 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.5</v>
+        <v>100</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>woxjrqDwAAC2135ZjCCVh4fnJ3A27kPQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.01</v>
+        <v>90</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>woxjrqDwAAEfuy1ECda6v6Eqx3CC-abQ</t>
+          <t>woxjrqDwAAOplA3yzywZibBNr744hIDQ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>woxjrqDwAAHywc0IvWIOnXsEeB5b7WhA</t>
+          <t>woxjrqDwAA_5cd16ZW_aCBuSJ4wqU2yw</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>130.02</v>
+        <v>10</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>woxjrqDwAAJNos1Dh0CAn-anfF5b_1cg</t>
+          <t>woxjrqDwAA_E_xkNwOwDxBahRnt6xesg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAlvI0BxMzitIvev8QJy-VMw</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>woxjrqDwAAUhABEt7_slC36srB3VSYAA</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.01</v>
+        <v>280</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>woxjrqDwAAWvJQT1XPGnIrp1ujOpA0PQ</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>15</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>woxjrqDwAA_5cd16ZW_aCBuSJ4wqU2yw</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>20</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>woxjrqDwAA_E_xkNwOwDxBahRnt6xesg</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>162.5</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>woxjrqDwAAlvI0BxMzitIvev8QJy-VMw</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>520</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>woxjrqDwAAtSRUOEBmefx7O7J0_CYQ5g</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>15</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>574.9300000000001</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>woxjrqDwAAzuhAu2qTw__nRS7uqsGexA</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>40.02</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
